--- a/testcase/testcase_study.xlsx
+++ b/testcase/testcase_study.xlsx
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.00579</v>
+        <v>0.007241</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="3" s="23">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.003332</v>
+        <v>0.003949</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" s="23">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.002644</v>
+        <v>0.003552</v>
       </c>
     </row>
     <row customHeight="1" ht="49.95" r="5" s="23">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.002848</v>
+        <v>0.004314</v>
       </c>
     </row>
     <row customHeight="1" ht="49.95" r="6" s="23">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.003252</v>
+        <v>0.00448</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/testcase_study.xlsx
+++ b/testcase/testcase_study.xlsx
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.007241</v>
+        <v>0.006638</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="3" s="23">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.003949</v>
+        <v>0.00344</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" s="23">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.003552</v>
+        <v>0.003339</v>
       </c>
     </row>
     <row customHeight="1" ht="49.95" r="5" s="23">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.004314</v>
+        <v>0.00338</v>
       </c>
     </row>
     <row customHeight="1" ht="49.95" r="6" s="23">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.00448</v>
+        <v>0.003231</v>
       </c>
     </row>
   </sheetData>
